--- a/Excel/Map.xlsx
+++ b/Excel/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ProjectRA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EA371B-696B-4E19-95F5-1DC36BBB0163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7C3A6D-C09E-4B33-BA9F-7D18CDCC457B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28020" yWindow="780" windowWidth="23670" windowHeight="11295" xr2:uid="{7253ED27-9A3C-4F5D-A65F-C4537287CAC9}"/>
   </bookViews>
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF48FF36-6B4D-478E-8884-6868BB153E75}" name="Item" displayName="Item" ref="B2:D6" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF48FF36-6B4D-478E-8884-6868BB153E75}" name="Map" displayName="Map" ref="B2:D6" totalsRowShown="0">
   <autoFilter ref="B2:D6" xr:uid="{FF48FF36-6B4D-478E-8884-6868BB153E75}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B0F5C06A-3A90-4B8B-94E7-96D67FA8E046}" name="id"/>
@@ -498,7 +498,7 @@
   <dimension ref="B1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Excel/Map.xlsx
+++ b/Excel/Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ProjectRA\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Works\Projects\ProejctRA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7C3A6D-C09E-4B33-BA9F-7D18CDCC457B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E807C016-4B34-4CC6-81EB-C8B367BBA3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="780" windowWidth="23670" windowHeight="11295" xr2:uid="{7253ED27-9A3C-4F5D-A65F-C4537287CAC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7253ED27-9A3C-4F5D-A65F-C4537287CAC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,17 @@
   </si>
   <si>
     <t>test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -167,8 +178,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF48FF36-6B4D-478E-8884-6868BB153E75}" name="Map" displayName="Map" ref="B2:D6" totalsRowShown="0">
-  <autoFilter ref="B2:D6" xr:uid="{FF48FF36-6B4D-478E-8884-6868BB153E75}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF48FF36-6B4D-478E-8884-6868BB153E75}" name="Map" displayName="Map" ref="B2:D9" totalsRowShown="0">
+  <autoFilter ref="B2:D9" xr:uid="{FF48FF36-6B4D-478E-8884-6868BB153E75}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B0F5C06A-3A90-4B8B-94E7-96D67FA8E046}" name="id"/>
     <tableColumn id="3" xr3:uid="{B2FCAF0D-ABD1-4715-9489-C1FBA485A609}" name="map_id"/>
@@ -495,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2CDA8B-CB63-42E5-B7F4-E78A9D883E3E}">
-  <dimension ref="B1:D6"/>
+  <dimension ref="B1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:F4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -564,6 +575,39 @@
         <v>8</v>
       </c>
     </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Map.xlsx
+++ b/Excel/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Works\Projects\ProejctRA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E807C016-4B34-4CC6-81EB-C8B367BBA3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281D5358-D32D-46B9-AA02-5AF0BD13E7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7253ED27-9A3C-4F5D-A65F-C4537287CAC9}"/>
+    <workbookView xWindow="3105" yWindow="5535" windowWidth="28800" windowHeight="15345" xr2:uid="{7253ED27-9A3C-4F5D-A65F-C4537287CAC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" r:id="rId1"/>
@@ -36,11 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,38 +46,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>map_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room_preset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>test4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test5</t>
+    <t>start_room_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -89,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,14 +69,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -150,14 +111,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -178,12 +136,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF48FF36-6B4D-478E-8884-6868BB153E75}" name="Map" displayName="Map" ref="B2:D9" totalsRowShown="0">
-  <autoFilter ref="B2:D9" xr:uid="{FF48FF36-6B4D-478E-8884-6868BB153E75}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B0F5C06A-3A90-4B8B-94E7-96D67FA8E046}" name="id"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF48FF36-6B4D-478E-8884-6868BB153E75}" name="Map" displayName="Map" ref="B2:C5" totalsRowShown="0">
+  <autoFilter ref="B2:C5" xr:uid="{FF48FF36-6B4D-478E-8884-6868BB153E75}"/>
+  <tableColumns count="2">
     <tableColumn id="3" xr3:uid="{B2FCAF0D-ABD1-4715-9489-C1FBA485A609}" name="map_id"/>
-    <tableColumn id="4" xr3:uid="{A83EE132-20DA-4496-8E06-C2FBAE4AFB47}" name="room_preset"/>
+    <tableColumn id="4" xr3:uid="{A83EE132-20DA-4496-8E06-C2FBAE4AFB47}" name="start_room_id"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -506,106 +463,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2CDA8B-CB63-42E5-B7F4-E78A9D883E3E}">
-  <dimension ref="B1:D9"/>
+  <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.875" customWidth="1"/>
-    <col min="3" max="3" width="28.375" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="2" max="3" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
